--- a/仕様/テーブル定義書(GKL).xlsx
+++ b/仕様/テーブル定義書(GKL).xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="13" r:id="rId1"/>
-    <sheet name="ER图" sheetId="2" r:id="rId2"/>
-    <sheet name="m_user" sheetId="1" r:id="rId3"/>
-    <sheet name="m_project" sheetId="4" r:id="rId4"/>
-    <sheet name="m_tools" sheetId="5" r:id="rId5"/>
-    <sheet name="m_picture" sheetId="6" r:id="rId6"/>
-    <sheet name="m_check_method" sheetId="7" r:id="rId7"/>
-    <sheet name="m_temp_name" sheetId="3" r:id="rId8"/>
-    <sheet name="m_temp" sheetId="8" r:id="rId9"/>
-    <sheet name="t_cd_temp_relation" sheetId="9" r:id="rId10"/>
-    <sheet name="t_check_plan" sheetId="10" r:id="rId11"/>
-    <sheet name="t_check_result" sheetId="11" r:id="rId12"/>
-    <sheet name="t_check_ms" sheetId="12" r:id="rId13"/>
+    <sheet name="m_user" sheetId="1" r:id="rId2"/>
+    <sheet name="m_project" sheetId="4" r:id="rId3"/>
+    <sheet name="m_tools" sheetId="5" r:id="rId4"/>
+    <sheet name="m_picture" sheetId="6" r:id="rId5"/>
+    <sheet name="m_check_method" sheetId="7" r:id="rId6"/>
+    <sheet name="m_temp_name" sheetId="3" r:id="rId7"/>
+    <sheet name="m_temp" sheetId="8" r:id="rId8"/>
+    <sheet name="t_cd_temp_relation" sheetId="9" r:id="rId9"/>
+    <sheet name="t_check_plan" sheetId="10" r:id="rId10"/>
+    <sheet name="t_check_result" sheetId="11" r:id="rId11"/>
+    <sheet name="t_check_ms" sheetId="12" r:id="rId12"/>
+    <sheet name="ER图" sheetId="2" r:id="rId13"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId14"/>
@@ -1067,7 +1067,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1105,7 +1105,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1168,7 +1168,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1177,33 +1177,33 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <scheme val="major"/>
     </font>
     <font>
       <u/>
       <sz val="14"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -1525,6 +1525,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1573,27 +1588,12 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="標準_Book1" xfId="1"/>
+    <cellStyle name="標準_Book2" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
-    <cellStyle name="標準_Book1" xfId="1"/>
-    <cellStyle name="標準_Book2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1826,6 +1826,1080 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="chkTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic"/>
+                  <a:ea typeface="MS UI Gothic"/>
+                </a:rPr>
+                <a:t>入力(input)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11265" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s11265"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1352550</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>428625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11266" name="chkTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s11266"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic"/>
+                  <a:ea typeface="MS UI Gothic"/>
+                </a:rPr>
+                <a:t>入力(input)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11267" name="Drop Down 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s11267"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11269" name="Drop Down 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s11269"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11271" name="Drop Down 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s11271"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11273" name="Drop Down 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s11273"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11275" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s11275"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11277" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s11277"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12289" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s12289"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1352550</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>428625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12290" name="chkTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s12290"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic"/>
+                  <a:ea typeface="MS UI Gothic"/>
+                </a:rPr>
+                <a:t>入力(input)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12291" name="Drop Down 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s12291"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12293" name="Drop Down 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s12293"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12295" name="Drop Down 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s12295"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12297" name="Drop Down 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s12297"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12299" name="Drop Down 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s12299"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12301" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s12301"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1867,7 +2941,1981 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1352550</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>428625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4098" name="chkTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4098"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic"/>
+                  <a:ea typeface="MS UI Gothic"/>
+                </a:rPr>
+                <a:t>入力(input)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4099" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4099"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5121" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5121"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>428625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5122" name="chkTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5122"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic"/>
+                  <a:ea typeface="MS UI Gothic"/>
+                </a:rPr>
+                <a:t>入力(input)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5123" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5123"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6145" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6145"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1352550</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>428625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6146" name="chkTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6146"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic"/>
+                  <a:ea typeface="MS UI Gothic"/>
+                </a:rPr>
+                <a:t>入力(input)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6147" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6147"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7169" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s7169"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1352550</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>428625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7170" name="chkTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s7170"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic"/>
+                  <a:ea typeface="MS UI Gothic"/>
+                </a:rPr>
+                <a:t>入力(input)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7173" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s7173"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1352550</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>428625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3074" name="chkTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3074"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic"/>
+                  <a:ea typeface="MS UI Gothic"/>
+                </a:rPr>
+                <a:t>入力(input)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3077" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3077"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1352550</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3078" name="chkTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3078"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic"/>
+                  <a:ea typeface="MS UI Gothic"/>
+                </a:rPr>
+                <a:t>入力(input)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3079" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3079"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8193" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8193"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1352550</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>428625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8194" name="chkTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8194"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic"/>
+                  <a:ea typeface="MS UI Gothic"/>
+                </a:rPr>
+                <a:t>入力(input)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8195" name="Drop Down 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8195"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8197" name="Drop Down 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8197"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8199" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8199"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9217" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9217"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1352550</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>428625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9218" name="chkTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9218"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic"/>
+                  <a:ea typeface="MS UI Gothic"/>
+                </a:rPr>
+                <a:t>入力(input)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9219" name="Drop Down 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9219"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1352550</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9220" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9220"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic"/>
+                  <a:ea typeface="MS UI Gothic"/>
+                </a:rPr>
+                <a:t>入力(input)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9221" name="Drop Down 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9221"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1352550</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9222" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9222"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic"/>
+                  <a:ea typeface="MS UI Gothic"/>
+                </a:rPr>
+                <a:t>入力(input)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9223" name="cboTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9223"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1352550</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9224" name="chkTYPE" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9224"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic"/>
+                  <a:ea typeface="MS UI Gothic"/>
+                </a:rPr>
+                <a:t>入力(input)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1895,7 +4943,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1903,6 +4951,19 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1936,7 +4997,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1944,6 +5005,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -1953,24 +5037,14 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="MS UI Gothic"/>
                   <a:ea typeface="MS UI Gothic"/>
                 </a:rPr>
-                <a:t>入力</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>(input)</a:t>
+                <a:t>入力(input)</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2006,7 +5080,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2014,6 +5088,19 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -2047,7 +5134,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2055,6 +5142,19 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -2088,7 +5188,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2096,6 +5196,19 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -2129,7 +5242,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2137,2431 +5250,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11265" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s11265"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1352550</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>428625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11266" name="chkTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s11266"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>入力</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>(input)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11267" name="Drop Down 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s11267"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11269" name="Drop Down 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s11269"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11271" name="Drop Down 7" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s11271"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11273" name="Drop Down 9" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s11273"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11275" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s11275"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11277" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s11277"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12289" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s12289"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1352550</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>428625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12290" name="chkTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s12290"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>入力</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>(input)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12291" name="Drop Down 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s12291"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12293" name="Drop Down 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s12293"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12295" name="Drop Down 7" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s12295"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12297" name="Drop Down 9" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s12297"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12299" name="Drop Down 11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s12299"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12301" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s12301"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1352550</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="chkTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>入力</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>(input)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4097" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4097"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1352550</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>428625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4098" name="chkTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4098"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>入力</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>(input)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4099" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4099"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5121" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5121"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1352550</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>428625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5122" name="chkTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5122"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>入力</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>(input)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5123" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5123"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6145" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6145"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1352550</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>428625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6146" name="chkTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6146"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>入力</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>(input)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6147" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6147"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7169" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7169"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1352550</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>428625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7170" name="chkTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7170"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>入力</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>(input)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7173" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7173"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3073" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3073"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1352550</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>428625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3074" name="chkTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3074"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>入力</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>(input)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3077" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3077"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1352550</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3078" name="chkTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3078"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>入力</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>(input)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3079" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3079"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8193" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s8193"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1352550</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>428625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8194" name="chkTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s8194"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>入力</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>(input)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8195" name="Drop Down 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s8195"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8197" name="Drop Down 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s8197"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8199" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s8199"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9217" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9217"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1352550</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>428625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9218" name="chkTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9218"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>入力</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>(input)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9219" name="Drop Down 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9219"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1352550</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9220" name="Check Box 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9220"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>入力</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>(input)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9221" name="Drop Down 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9221"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1352550</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9222" name="Check Box 6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9222"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>入力</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>(input)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9223" name="cboTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9223"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1352550</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9224" name="chkTYPE" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9224"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>入力</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic"/>
-                  <a:ea typeface="MS UI Gothic"/>
-                </a:rPr>
-                <a:t>(input)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
       </xdr:twoCellAnchor>
@@ -4600,6 +5302,7 @@
       <sheetName val="DB_CHANGE_TABLE"/>
       <sheetName val="DB_REP"/>
       <sheetName val="ENV"/>
+      <sheetName val="テーブル定義書"/>
     </sheetNames>
     <definedNames>
       <definedName name="PublicModule.cboTYPE_Click"/>
@@ -4630,13 +5333,14 @@
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
+      <sheetData sheetId="25" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4678,7 +5382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4713,7 +5417,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4924,132 +5628,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="3.625" style="52" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="52"/>
+    <col min="1" max="2" width="3.5703125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:6" ht="22.5">
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="3:6">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="3:6">
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="3:6">
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="3:6">
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="44"/>
     </row>
     <row r="11" spans="3:6">
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
     </row>
     <row r="14" spans="3:6">
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -5078,15 +5782,15 @@
       <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -5108,593 +5812,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
+      <c r="C6" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="36.75" customHeight="1">
-      <c r="A9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="31">
-        <v>1</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="31">
-        <v>10</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="31">
-        <v>2</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="31">
-        <v>20</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="31">
-        <v>3</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="31">
-        <v>10</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K7"/>
-    <mergeCell ref="C7:E7"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="9217" r:id="rId3" name="cboTYPE">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0" macro="[1]!PublicModule.cboTYPE_Click">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>714375</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="9218" r:id="rId4" name="chkTYPE">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>1352550</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>723900</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>428625</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="9219" r:id="rId5" name="Drop Down 3">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0" macro="[1]!PublicModule.cboTYPE_Click">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>714375</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="9220" r:id="rId6" name="Check Box 4">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>1352550</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>723900</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="9221" r:id="rId7" name="Drop Down 5">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0" macro="[1]!PublicModule.cboTYPE_Click">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>714375</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="9222" r:id="rId8" name="Check Box 6">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>1352550</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>723900</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="9223" r:id="rId9" name="Drop Down 7">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0" macro="[1]!PublicModule.cboTYPE_Click">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>714375</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="9224" r:id="rId10" name="Check Box 8">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>1352550</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>723900</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:K24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="37.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:11" ht="15">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12"/>
@@ -6222,7 +6367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K30"/>
   <sheetViews>
@@ -6230,15 +6375,15 @@
       <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -6260,34 +6405,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12"/>
@@ -6987,7 +7132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K30"/>
   <sheetViews>
@@ -6995,15 +7140,15 @@
       <selection activeCell="E30" sqref="B28:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -7025,34 +7170,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12"/>
@@ -7718,17 +7863,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="N32" sqref="A26:N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="6"/>
@@ -7737,22 +7882,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -7774,34 +7919,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12"/>
@@ -7983,14 +8128,15 @@
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="cboTYPE">
+            <control shapeId="1025" r:id="rId4" name="cboTYPE">
               <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0" macro="[1]!PublicModule.cboTYPE_Click">
                 <anchor moveWithCells="1">
                   <from>
@@ -8012,7 +8158,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId4" name="chkTYPE">
+            <control shapeId="1026" r:id="rId5" name="chkTYPE">
               <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -8038,7 +8184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K15"/>
   <sheetViews>
@@ -8046,15 +8192,15 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -8076,34 +8222,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12"/>
@@ -8366,7 +8512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K15"/>
   <sheetViews>
@@ -8374,15 +8520,15 @@
       <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -8404,34 +8550,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12"/>
@@ -8704,7 +8850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K15"/>
   <sheetViews>
@@ -8712,15 +8858,15 @@
       <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -8742,34 +8888,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12"/>
@@ -9032,7 +9178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K15"/>
   <sheetViews>
@@ -9040,15 +9186,15 @@
       <selection activeCell="D38" sqref="D37:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -9070,34 +9216,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12"/>
@@ -9380,7 +9526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K24"/>
   <sheetViews>
@@ -9388,15 +9534,15 @@
       <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -9418,34 +9564,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12"/>
@@ -9855,21 +10001,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -9891,34 +10037,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12"/>
@@ -10343,7 +10489,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" ht="22.5">
       <c r="A25" s="31">
         <v>16</v>
       </c>
@@ -10493,4 +10639,563 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="36.75" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="31">
+        <v>1</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="31">
+        <v>10</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="31">
+        <v>2</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="31">
+        <v>20</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="31">
+        <v>3</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="31">
+        <v>10</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K7"/>
+    <mergeCell ref="C7:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9217" r:id="rId3" name="cboTYPE">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0" macro="[1]!PublicModule.cboTYPE_Click">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>714375</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9218" r:id="rId4" name="chkTYPE">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1352550</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>723900</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>428625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9219" r:id="rId5" name="Drop Down 3">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0" macro="[1]!PublicModule.cboTYPE_Click">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>714375</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9220" r:id="rId6" name="Check Box 4">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1352550</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>723900</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>200025</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9221" r:id="rId7" name="Drop Down 5">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0" macro="[1]!PublicModule.cboTYPE_Click">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>714375</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9222" r:id="rId8" name="Check Box 6">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1352550</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>723900</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>200025</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9223" r:id="rId9" name="Drop Down 7">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0" macro="[1]!PublicModule.cboTYPE_Click">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>714375</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9224" r:id="rId10" name="Check Box 8">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1352550</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>723900</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>200025</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
 </file>